--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL28"/>
+  <dimension ref="A2:ALL20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -500,14 +500,9 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2531,44 +2526,14 @@
           <t>2023-01</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>2023-02</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 00</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 01</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 02</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 03</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 04</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 05</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 06</t>
         </is>
       </c>
     </row>
@@ -2582,34 +2547,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259735.9266275445</v>
+        <v>12181.80636098114</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>196047.4844635164</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>63688.44216402821</v>
+        <v>12181.80636098114</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5739.09167463308</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6589.204153239654</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>44008.6578641378</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>44168.17165457809</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>44119.37783925173</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>43372.78541241942</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>43330.34193509618</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>34147.3877688217</v>
+        <v>6442.71468634806</v>
       </c>
     </row>
     <row r="8">
@@ -2621,34 +2568,16 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>201124.7474599157</v>
+        <v>11226.13335313329</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>152452.2764957026</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>48672.47096421315</v>
+        <v>11226.13335313329</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>5289.432740676841</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>5239.510293761203</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>34112.82432723976</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>34313.25667943095</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>34289.32001597818</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>33524.45209868473</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>33490.9931516014</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>26154.39089321948</v>
+        <v>5936.700612456448</v>
       </c>
     </row>
     <row r="9">
@@ -2665,28 +2594,10 @@
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="I9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2695,38 +2606,20 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>pv2_emissions</t>
+          <t>bat1_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0</v>
+        <v>3.686047053201779</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
+        <v>3.686047053201779</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>1.982541050528004</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>0</v>
+        <v>1.703506002673775</v>
       </c>
     </row>
     <row r="11">
@@ -2734,38 +2627,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>bat1_emissions</t>
+          <t>bat2_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>493.7677247656711</v>
+        <v>3.946783625730995</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>373.6381531915789</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>120.1295715740922</v>
+        <v>3.946783625730995</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>2.204459064327486</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>13.45155715198783</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>86.06456221543849</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>82.66067907647874</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>80.64720752720278</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>89.24187245800792</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>76.77276731506831</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>64.92907902148708</v>
+        <v>1.742324561403509</v>
       </c>
     </row>
     <row r="12">
@@ -2773,38 +2648,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>bat2_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>41.23373675318611</v>
+        <v>735</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>32.09923728810639</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>9.134499465079722</v>
+        <v>735</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>345</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>1.311483802143886</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>7.052826141234398</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>6.854035857186828</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>8.298564764897352</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>6.635323798667315</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>6.798054075408683</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>4.283448313647648</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -2812,38 +2669,20 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>solar_th1_emissions</t>
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>14985</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>11145</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>3840</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2851,38 +2690,20 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>CHP2_emissions</t>
+          <t>pvt1_emissions</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>14985</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>11145</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>3840</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2890,7 +2711,7 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_emissions</t>
+          <t>heat_pump1_emissions</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
@@ -2899,28 +2720,10 @@
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="I15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2929,38 +2732,20 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_emissions</t>
+          <t>bat_with_aging1_emissions</t>
         </is>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0</v>
+        <v>3.556837863247556</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
+        <v>3.556837863247556</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1.814914289113736</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>0</v>
+        <v>1.741923574133821</v>
       </c>
     </row>
     <row r="17">
@@ -2968,38 +2753,20 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>pvt1_emissions</t>
+          <t>bat_with_aging2_emissions</t>
         </is>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0</v>
+        <v>3.167549831988842</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
+        <v>3.167549831988842</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1.814914289113736</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
+        <v>1.352635542875106</v>
       </c>
     </row>
     <row r="18">
@@ -3007,389 +2774,41 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pvt2_emissions</t>
+          <t>gas_boiler1_emissions</t>
         </is>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0</v>
+        <v>206.3157894736842</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>0</v>
+        <v>206.3157894736842</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>96.84210526315786</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_emissions</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>1601.155508333334</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>1190.20065</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>410.9548583333334</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>33.65149166666667</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>287.3532416666667</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>255.6661416666667</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>263.2051583333334</v>
-      </c>
-      <c r="N19" s="7" t="n">
-        <v>270.529925</v>
-      </c>
-      <c r="O19" s="7" t="n">
-        <v>272.5521916666667</v>
-      </c>
-      <c r="P19" s="7" t="n">
-        <v>218.1973583333334</v>
+        <v>109.4736842105263</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_emissions</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>1229.593633333334</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>910.2617333333335</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>319.3319000000001</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>29.155525</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>226.5949000000001</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>219.2178416666667</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>187.4532166666667</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>189.375975</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>192.9652583333334</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>184.8309166666667</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_emissions</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_emissions</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_emissions</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>18.06913144040883</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>13.86761413827314</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>4.201517302135691</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>0.5355851393531942</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>2.131432349026233</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>3.191755121251991</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>3.150561268435367</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>3.875930797587082</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>2.938839131732913</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>2.245027633022048</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_emissions</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>19.46469616081167</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>14.61426407302124</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>4.850432087790431</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>0.5355851393531942</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>2.426048209879476</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>3.113995443094078</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>3.092588397220414</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>4.46376036462985</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>3.111146656783424</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>2.721571949851236</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_emissions</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>4206.315789473683</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>3128.421052631578</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>1077.894736842105</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>96.84210526315786</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>707.3684210526314</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>707.3684210526314</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>707.3684210526314</v>
-      </c>
-      <c r="N25" s="7" t="n">
-        <v>707.3684210526314</v>
-      </c>
-      <c r="O25" s="7" t="n">
-        <v>707.3684210526314</v>
-      </c>
-      <c r="P25" s="7" t="n">
-        <v>572.6315789473683</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_emissions</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>21031.57894736842</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>15642.1052631579</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>5389.473684210527</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>484.2105263157895</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>3536.842105263158</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>3536.842105263158</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>3536.842105263158</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>3536.842105263158</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>3536.842105263158</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>2863.157894736843</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>259735.9266275445</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>196047.4844635164</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>259735.9266275446</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>6589.204153239654</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>50597.86201737745</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>94766.03367195555</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>138885.4115112073</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>182258.1969236267</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>225588.5388587229</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>259735.9266275446</v>
+      <c r="E20" s="5" t="n">
+        <v>12181.80636098114</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>12181.80636098114</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>5739.09167463308</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>12181.80636098114</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL20"/>
+  <dimension ref="A2:ALL14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -500,9 +500,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2526,14 +2531,44 @@
           <t>2023-01</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 00</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 01</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 02</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 03</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 04</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 05</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 06</t>
         </is>
       </c>
     </row>
@@ -2547,16 +2582,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12181.80636098114</v>
+        <v>225340.055652122</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12181.80636098114</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>5739.09167463308</v>
+        <v>169395.9183200123</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>55944.13733210969</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6442.71468634806</v>
+        <v>5404.246789269524</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>37915.13243106233</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>38156.72801407613</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>38243.79456800596</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>38040.16833742814</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>37716.97214857384</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>29863.01336370601</v>
       </c>
     </row>
     <row r="8">
@@ -2568,16 +2621,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>11226.13335313329</v>
+        <v>202783.0651550459</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>11226.13335313329</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>5289.432740676841</v>
+        <v>152618.971974983</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>50164.0931800629</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>5936.700612456448</v>
+        <v>4884.542330205197</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>34122.09748954186</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>34364.26719536268</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>34449.57146859076</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>34246.35459473808</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>33923.52785032822</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>26792.70422627911</v>
       </c>
     </row>
     <row r="9">
@@ -2594,10 +2665,28 @@
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2610,16 +2699,34 @@
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>3.686047053201779</v>
+        <v>79.4904970760234</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>3.686047053201779</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>1.982541050528004</v>
+        <v>59.44634502923977</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>20.04415204678363</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>1.703506002673775</v>
+        <v>2.204459064327486</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>13.03494152046784</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>12.46081871345029</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>14.22309941520468</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>13.81374269005848</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>13.44429824561404</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>10.30913742690059</v>
       </c>
     </row>
     <row r="11">
@@ -2627,20 +2734,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>bat2_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>3.946783625730995</v>
+        <v>22477.50000000002</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>3.946783625730995</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>2.204459064327486</v>
+        <v>16717.50000000001</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>5760.000000000005</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>1.742324561403509</v>
+        <v>517.5000000000003</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>3780.000000000003</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>3780.000000000003</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>3780.000000000003</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>3780.000000000003</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>3780.000000000003</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>3060.000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -2648,167 +2773,77 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>heat_pump1_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>735</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_emissions</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="K12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="L12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_emissions</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_emissions</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_emissions</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>3.556837863247556</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>3.556837863247556</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>1.814914289113736</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>1.741923574133821</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_emissions</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>3.167549831988842</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>3.167549831988842</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>1.814914289113736</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>1.352635542875106</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_emissions</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>206.3157894736842</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>206.3157894736842</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>96.84210526315786</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>109.4736842105263</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E20" s="5" t="n">
-        <v>12181.80636098114</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>12181.80636098114</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>5739.09167463308</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>12181.80636098114</v>
+      <c r="E14" s="5" t="n">
+        <v>225340.055652122</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>169395.9183200123</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>225340.055652122</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>5404.246789269524</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>43319.37922033186</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>81476.10723440799</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>119719.901802414</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>157760.0701398421</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>195477.0422884159</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>225340.055652122</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL14"/>
+  <dimension ref="A2:ALL12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -500,14 +500,10 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2528,47 +2524,22 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-10</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023 - wk 39</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 00</t>
+          <t>2023 - wk 40</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 01</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 02</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 03</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 04</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 05</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 06</t>
+          <t>2023 - wk 41</t>
         </is>
       </c>
     </row>
@@ -2582,34 +2553,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>225340.055652122</v>
+        <v>48513.73983373242</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>169395.9183200123</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>55944.13733210969</v>
+        <v>48513.73983373242</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5879.562884689316</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5404.246789269524</v>
+        <v>41686.35056589652</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>37915.13243106233</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>38156.72801407613</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>38243.79456800596</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>38040.16833742814</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>37716.97214857384</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>29863.01336370601</v>
+        <v>947.8263831465937</v>
       </c>
     </row>
     <row r="8">
@@ -2621,34 +2577,19 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>202783.0651550459</v>
+        <v>48513.68705595464</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>152618.971974983</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>50164.0931800629</v>
+        <v>48513.68705595464</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>5879.562884689316</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>4884.542330205197</v>
+        <v>41686.35056589652</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>34122.09748954186</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>34364.26719536268</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>34449.57146859076</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>34246.35459473808</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>33923.52785032822</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>26792.70422627911</v>
+        <v>947.7736053688159</v>
       </c>
     </row>
     <row r="9">
@@ -2665,28 +2606,13 @@
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="I9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,151 +2625,43 @@
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>79.4904970760234</v>
+        <v>0.05277777777777775</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>59.44634502923977</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>20.04415204678363</v>
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>2.204459064327486</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>13.03494152046784</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>12.46081871345029</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>14.22309941520468</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>13.81374269005848</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>13.44429824561404</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>10.30913742690059</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_emissions</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>22477.50000000002</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>16717.50000000001</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>5760.000000000005</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>517.5000000000003</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>3780.000000000003</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>3780.000000000003</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>3780.000000000003</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>3780.000000000003</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>3780.000000000003</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>3060.000000000002</v>
+        <v>0.05277777777777775</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_emissions</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>225340.055652122</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>169395.9183200123</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>225340.055652122</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>5404.246789269524</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>43319.37922033186</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>81476.10723440799</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>119719.901802414</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>157760.0701398421</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>195477.0422884159</v>
-      </c>
-      <c r="P14" s="5" t="n">
-        <v>225340.055652122</v>
+      <c r="E12" s="5" t="n">
+        <v>48513.73983373242</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>48513.73983373242</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>5879.562884689316</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>47565.91345058583</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>48513.73983373243</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,12 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -98,7 +104,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -117,6 +123,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -486,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL12"/>
+  <dimension ref="A2:ALL19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -500,10 +507,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2527,19 +2538,44 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 39</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 40</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 41</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 42</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 43</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 44</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2553,19 +2589,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48513.73983373242</v>
+        <v>248239.7282684502</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>48513.73983373242</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>5879.562884689316</v>
+        <v>186586.5518234422</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>61653.17644500789</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>41686.35056589652</v>
+        <v>5847.184272007141</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>947.8263831465937</v>
+        <v>42053.47724826248</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>42012.31351400985</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>42054.60495003457</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>41874.58096385009</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>41549.24871986343</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>32848.3186004226</v>
       </c>
     </row>
     <row r="8">
@@ -2577,19 +2628,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>48513.68705595464</v>
+        <v>227727.6742567543</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>48513.68705595464</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>5879.562884689316</v>
+        <v>171337.8524346996</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>56389.82182205468</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>41686.35056589652</v>
+        <v>5380.05438341065</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>947.7736053688159</v>
+        <v>38591.91028554318</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>38568.47519851277</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>38608.54303731527</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>38435.73331779746</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>38090.86816547746</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>30052.08986869745</v>
       </c>
     </row>
     <row r="9">
@@ -2606,13 +2672,28 @@
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2625,43 +2706,346 @@
         </is>
       </c>
       <c r="E10" s="7" t="n">
+        <v>0.05277777777777773</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0.05277777777777773</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>-1.973729821555834e-17</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
         <v>0.05277777777777775</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>0.05277777777777775</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0.05277777777777775</v>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_emissions</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>14985</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>11145</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>3840.000000000001</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>345.0000000000001</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>2520.000000000001</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>2520.000000000001</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>2520.000000000001</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>2040.000000000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_emissions</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_emissions</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_emissions</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>1320.632666666667</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>975.2255583333335</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>345.4071083333334</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>25.28778333333334</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>234.1985416666667</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>216.4171166666667</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>218.6934916666667</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>211.479225</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>231.0121333333334</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>183.544375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_emissions</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_emissions</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_emissions</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>4206.315789473685</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>3128.42105263158</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>1077.894736842105</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>96.8421052631579</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>572.6315789473686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>48513.73983373242</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>48513.73983373242</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>5879.562884689316</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>47565.91345058583</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>48513.73983373243</v>
+      <c r="E19" s="5" t="n">
+        <v>248239.7282684502</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>186586.5518234422</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>248239.7282684501</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>5847.184272007141</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>47900.66152026962</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>89912.97503427946</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>131967.579984314</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>173842.1609481641</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>215391.4096680275</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>248239.7282684501</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -2589,34 +2589,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248239.7282684502</v>
+        <v>247980.1555784502</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>186586.5518234422</v>
+        <v>186617.4493795533</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>61653.17644500789</v>
+        <v>61362.70619889678</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5847.184272007141</v>
+        <v>5958.449288673807</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>42053.47724826248</v>
+        <v>41915.17662492915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42012.31351400985</v>
+        <v>41875.58370289874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42054.60495003457</v>
+        <v>42098.34561003456</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>41874.58096385009</v>
+        <v>42001.56138773898</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>41549.24871986343</v>
+        <v>41514.18032819677</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>32848.3186004226</v>
+        <v>32616.85863597815</v>
       </c>
     </row>
     <row r="8">
@@ -2628,34 +2628,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>227727.6742567543</v>
+        <v>227489.3780167543</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>171337.8524346996</v>
+        <v>171365.2968213662</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>56389.82182205468</v>
+        <v>56124.08119538801</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>5380.05438341065</v>
+        <v>5482.199316743983</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>38591.91028554318</v>
+        <v>38464.94577887651</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>38568.47519851277</v>
+        <v>38443.87333184611</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>38608.54303731527</v>
+        <v>38648.69839731527</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>38435.73331779746</v>
+        <v>38550.46434446413</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>38090.86816547746</v>
+        <v>38058.67423214413</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>30052.08986869745</v>
+        <v>29840.52261536412</v>
       </c>
     </row>
     <row r="9">
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
         <v>0.05277777777777775</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>2520.000000000001</v>
       </c>
       <c r="L11" s="7" t="n">
+        <v>2520.000000000001</v>
+      </c>
+      <c r="M11" s="7" t="n">
         <v>2520</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>2520.000000000001</v>
       </c>
       <c r="N11" s="7" t="n">
         <v>2520.000000000001</v>
@@ -2772,7 +2772,7 @@
         <v>2520</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>2040.000000000001</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="12">
@@ -2862,34 +2862,34 @@
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1320.632666666667</v>
+        <v>1299.356216666667</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>975.2255583333335</v>
+        <v>978.6259500000002</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>345.4071083333334</v>
+        <v>320.7302666666668</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>25.28778333333334</v>
+        <v>34.40786666666668</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>234.1985416666667</v>
+        <v>222.8624250000001</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>216.4171166666667</v>
+        <v>204.3419500000001</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>218.6934916666667</v>
+        <v>222.2787916666667</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>211.479225</v>
+        <v>223.6230666666667</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>231.0121333333334</v>
+        <v>228.1376750000001</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>183.544375</v>
+        <v>163.7044416666667</v>
       </c>
     </row>
     <row r="15">
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0.05277777777777777</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777777</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777777</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3018,34 +3018,34 @@
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>248239.7282684502</v>
+        <v>247980.1555784502</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>186586.5518234422</v>
+        <v>186617.4493795533</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>248239.7282684501</v>
+        <v>247980.1555784501</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>5847.184272007141</v>
+        <v>5958.449288673807</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>47900.66152026962</v>
+        <v>47873.62591360295</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89912.97503427946</v>
+        <v>89749.2096165017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131967.579984314</v>
+        <v>131847.5552265363</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>173842.1609481641</v>
+        <v>173849.1166142752</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>215391.4096680275</v>
+        <v>215363.296942472</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>248239.7282684501</v>
+        <v>247980.1555784502</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,12 +40,6 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -104,7 +98,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -123,7 +117,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -493,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL19"/>
+  <dimension ref="A2:ALL29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2589,34 +2582,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>247980.1555784502</v>
+        <v>760497.9311451463</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>186617.4493795533</v>
+        <v>567146.7423777404</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>61362.70619889678</v>
+        <v>193351.1887674055</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5958.449288673807</v>
+        <v>17792.50737504808</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>41915.17662492915</v>
+        <v>127865.2076426484</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41875.58370289874</v>
+        <v>128158.4241122847</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42098.34561003456</v>
+        <v>128112.7589760872</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>42001.56138773898</v>
+        <v>128090.9181565694</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>41514.18032819677</v>
+        <v>127637.749330916</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>32616.85863597815</v>
+        <v>102840.3655515922</v>
       </c>
     </row>
     <row r="8">
@@ -2628,34 +2621,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>227489.3780167543</v>
+        <v>360694.6279861341</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>171365.2968213662</v>
+        <v>269619.6104916888</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>56124.08119538801</v>
+        <v>91075.0174944453</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>5482.199316743983</v>
+        <v>8257.154529192489</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>38464.94577887651</v>
+        <v>60848.79166570829</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>38443.87333184611</v>
+        <v>61462.03943646119</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>38648.69839731527</v>
+        <v>60950.30484853769</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>38550.46434446413</v>
+        <v>60228.19886159263</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>38058.67423214413</v>
+        <v>60583.90518532153</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>29840.52261536412</v>
+        <v>48364.23345932028</v>
       </c>
     </row>
     <row r="9">
@@ -2663,38 +2656,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>pv1_emissions</t>
+          <t>net2_emissions</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>359291.6496439535</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0</v>
+        <v>267437.5977696775</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>0</v>
+        <v>91854.05187427605</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
+        <v>8591.706307551496</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0</v>
+        <v>60219.22272650156</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>0</v>
+        <v>59890.43244205159</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0</v>
+        <v>60360.56726877759</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0</v>
+        <v>61055.08086953816</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0</v>
+        <v>60237.15122015594</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0</v>
+        <v>48937.48880937718</v>
       </c>
     </row>
     <row r="10">
@@ -2702,20 +2695,20 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>bat1_emissions</t>
+          <t>pv1_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="8" t="n">
-        <v>-1.973729821555834e-17</v>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>0</v>
@@ -2727,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>0</v>
@@ -2741,38 +2734,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>pv2_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>14985</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>11145</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>3840.000000000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>345.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>2520.000000000001</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>2520.000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2520.000000000001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2780,20 +2773,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_emissions</t>
+          <t>bat1_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="K12" s="7" t="n">
         <v>0</v>
@@ -2819,20 +2812,20 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pvt1_emissions</t>
+          <t>bat2_emissions</t>
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>0</v>
@@ -2858,38 +2851,38 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1299.356216666667</v>
+        <v>14985</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>978.6259500000002</v>
+        <v>11145</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>320.7302666666668</v>
+        <v>3840</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>34.40786666666668</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>222.8624250000001</v>
+        <v>2520</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>204.3419500000001</v>
+        <v>2520</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>222.2787916666667</v>
+        <v>2520</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>223.6230666666667</v>
+        <v>2520</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>228.1376750000001</v>
+        <v>2520</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>163.7044416666667</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="15">
@@ -2897,38 +2890,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_emissions</t>
+          <t>CHP2_emissions</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0</v>
+        <v>14985</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>0</v>
+        <v>11145</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="16">
@@ -2936,14 +2929,14 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_emissions</t>
+          <t>solar_th1_emissions</t>
         </is>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.05277777777777777</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0.05277777777777777</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -2961,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>0.05277777777777777</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>0</v>
@@ -2975,77 +2968,467 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
+          <t>solar_th2_emissions</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_emissions</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_emissions</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_emissions</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>1305.738866666667</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>955.7824250000002</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>349.9564416666668</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>38.87845000000001</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>212.7201250000001</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>214.3197166666667</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>213.5463583333334</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>220.3752250000001</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>214.4065166666667</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>191.492475</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_emissions</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>823.0719583333336</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>586.6984750000001</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>236.3734833333334</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>20.87276666666667</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>129.7362833333334</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>136.895675</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>133.6036583333334</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>132.5263583333333</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>147.5495666666667</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>121.88765</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_emissions</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_emissions</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_emissions</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_emissions</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
           <t>gas_boiler1_emissions</t>
         </is>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E26" s="7" t="n">
         <v>4206.315789473685</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G26" s="7" t="n">
         <v>3128.42105263158</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H26" s="7" t="n">
         <v>1077.894736842105</v>
       </c>
-      <c r="J17" s="7" t="n">
-        <v>96.8421052631579</v>
-      </c>
-      <c r="K17" s="7" t="n">
+      <c r="J26" s="7" t="n">
+        <v>96.84210526315792</v>
+      </c>
+      <c r="K26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P26" s="7" t="n">
         <v>572.6315789473686</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_emissions</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>4206.315789473685</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>3128.42105263158</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>1077.894736842105</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>96.84210526315792</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="O27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>572.6315789473686</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>247980.1555784502</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>186617.4493795533</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>247980.1555784501</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>5958.449288673807</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>47873.62591360295</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>89749.2096165017</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>131847.5552265363</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>173849.1166142752</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>215363.296942472</v>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>247980.1555784502</v>
+      <c r="E29" s="5" t="n">
+        <v>760497.9311451463</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>567146.7423777404</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>760497.931145146</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>17792.50737504808</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>145657.7150176965</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>273816.1391299812</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>401928.8981060684</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>530019.8162626378</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>657657.5655935539</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>760497.9311451461</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL29"/>
+  <dimension ref="A2:ALL28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2582,34 +2582,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>760497.9311451463</v>
+        <v>243341.5722382834</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>567146.7423777404</v>
+        <v>182964.3565130286</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>193351.1887674055</v>
+        <v>60377.21572525475</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>17792.50737504808</v>
+        <v>5788.839010501635</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>127865.2076426484</v>
+        <v>41045.00982550369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128158.4241122847</v>
+        <v>41235.60883514557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128112.7589760872</v>
+        <v>41122.08601394689</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>128090.9181565694</v>
+        <v>41229.61297387876</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>127637.749330916</v>
+        <v>40731.88577359835</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>102840.3655515922</v>
+        <v>32188.52980570848</v>
       </c>
     </row>
     <row r="8">
@@ -2621,34 +2621,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>360694.6279861341</v>
+        <v>205062.0426615557</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>269619.6104916888</v>
+        <v>154494.9669683367</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>91075.0174944453</v>
+        <v>50567.07569321899</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>8257.154529192489</v>
+        <v>4912.998432285264</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>60848.79166570829</v>
+        <v>34605.94551892477</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>61462.03943646119</v>
+        <v>34795.60190147579</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>60950.30484853769</v>
+        <v>34691.42805646258</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>60228.19886159263</v>
+        <v>34783.01924217368</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>60583.90518532153</v>
+        <v>34280.45329971881</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>48364.23345932028</v>
+        <v>26992.59621051481</v>
       </c>
     </row>
     <row r="9">
@@ -2656,38 +2656,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net2_emissions</t>
+          <t>pv1_emissions</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>359291.6496439535</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>267437.5977696775</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>91854.05187427605</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>8591.706307551496</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>60219.22272650156</v>
+        <v>0</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>59890.43244205159</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>60360.56726877759</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>61055.08086953816</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>60237.15122015594</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>48937.48880937718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2695,7 +2695,7 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>pv1_emissions</t>
+          <t>pv2_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
@@ -2734,20 +2734,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>pv2_emissions</t>
+          <t>bat1_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>bat1_emissions</t>
+          <t>bat2_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
@@ -2812,38 +2812,38 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>bat2_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>14985</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>11145</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="14">
@@ -2851,7 +2851,7 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>CHP2_emissions</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
@@ -2890,38 +2890,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>CHP2_emissions</t>
+          <t>solar_th1_emissions</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
-        <v>14985</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>11145</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2929,7 +2929,7 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_emissions</t>
+          <t>solar_th2_emissions</t>
         </is>
       </c>
       <c r="E16" s="7" t="n">
@@ -2968,7 +2968,7 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_emissions</t>
+          <t>pvt1_emissions</t>
         </is>
       </c>
       <c r="E17" s="7" t="n">
@@ -3007,7 +3007,7 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pvt1_emissions</t>
+          <t>pvt2_emissions</t>
         </is>
       </c>
       <c r="E18" s="7" t="n">
@@ -3046,38 +3046,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>pvt2_emissions</t>
+          <t>charging_station1_emissions</t>
         </is>
       </c>
       <c r="E19" s="7" t="n">
-        <v>0</v>
+        <v>1304.808883333334</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>0</v>
+        <v>959.3789500000003</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>0</v>
+        <v>345.4299333333334</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0</v>
+        <v>26.82118333333334</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>0</v>
+        <v>220.653225</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>0</v>
+        <v>219.9715083333334</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>0</v>
+        <v>211.96875</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>0</v>
+        <v>217.9037833333334</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>0</v>
+        <v>222.3256166666667</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>0</v>
+        <v>185.1648166666667</v>
       </c>
     </row>
     <row r="20">
@@ -3085,38 +3085,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_emissions</t>
+          <t>charging_station2_emissions</t>
         </is>
       </c>
       <c r="E20" s="7" t="n">
-        <v>1305.738866666667</v>
+        <v>817.6082083333336</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>955.7824250000002</v>
+        <v>616.5107250000002</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>349.9564416666668</v>
+        <v>201.0974833333334</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>38.87845000000001</v>
+        <v>24.07144166666668</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>212.7201250000001</v>
+        <v>133.35845</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>214.3197166666667</v>
+        <v>134.6838</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>213.5463583333334</v>
+        <v>133.1940666666667</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>220.3752250000001</v>
+        <v>143.275925</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>214.4065166666667</v>
+        <v>143.9736250000001</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>191.492475</v>
+        <v>105.0509</v>
       </c>
     </row>
     <row r="21">
@@ -3124,38 +3124,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_emissions</t>
+          <t>heat_pump1_emissions</t>
         </is>
       </c>
       <c r="E21" s="7" t="n">
-        <v>823.0719583333336</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>586.6984750000001</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>236.3734833333334</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>20.87276666666667</v>
+        <v>0</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>129.7362833333334</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>136.895675</v>
+        <v>0</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>133.6036583333334</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>132.5263583333333</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>147.5495666666667</v>
+        <v>0</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>121.88765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3163,7 +3163,7 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_emissions</t>
+          <t>heat_pump2_emissions</t>
         </is>
       </c>
       <c r="E22" s="7" t="n">
@@ -3202,20 +3202,20 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_emissions</t>
+          <t>bat_with_aging1_emissions</t>
         </is>
       </c>
       <c r="E23" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="K23" s="7" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_emissions</t>
+          <t>bat_with_aging2_emissions</t>
         </is>
       </c>
       <c r="E24" s="7" t="n">
@@ -3280,38 +3280,38 @@
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_emissions</t>
+          <t>gas_boiler1_emissions</t>
         </is>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>3094.189194368667</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>2302.155526367974</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>0</v>
+        <v>792.0336680006928</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>67.3684210526289</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0</v>
+        <v>522.5263157894589</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>0</v>
+        <v>522.8253095469844</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>0</v>
+        <v>522.9688250281929</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>0</v>
+        <v>522.8877075822928</v>
       </c>
       <c r="O25" s="7" t="n">
-        <v>0</v>
+        <v>522.5263157894589</v>
       </c>
       <c r="P25" s="7" t="n">
-        <v>0</v>
+        <v>413.0862995796505</v>
       </c>
     </row>
     <row r="26">
@@ -3319,116 +3319,77 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_emissions</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>4206.315789473685</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>3128.42105263158</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>1077.894736842105</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>96.84210526315792</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>572.6315789473686</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
           <t>gas_boiler2_emissions</t>
         </is>
       </c>
-      <c r="E27" s="7" t="n">
-        <v>4206.315789473685</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>3128.42105263158</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>1077.894736842105</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>96.84210526315792</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="L27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="M27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="O27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="P27" s="7" t="n">
-        <v>572.6315789473686</v>
+      <c r="E26" s="7" t="n">
+        <v>3092.712179581232</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>2301.13323221283</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>791.5789473684016</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>67.36842105262967</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>522.5263157894589</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>522.5263157894589</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>522.5263157894592</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>522.5263157894592</v>
+      </c>
+      <c r="O26" s="7" t="n">
+        <v>522.6069164234074</v>
+      </c>
+      <c r="P26" s="7" t="n">
+        <v>412.6315789473585</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E29" s="5" t="n">
-        <v>760497.9311451463</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>567146.7423777404</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>760497.931145146</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>17792.50737504808</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>145657.7150176965</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>273816.1391299812</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>401928.8981060684</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>530019.8162626378</v>
-      </c>
-      <c r="O29" s="5" t="n">
-        <v>657657.5655935539</v>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>760497.9311451461</v>
+      <c r="E28" s="5" t="n">
+        <v>243341.5722382834</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>182964.3565130286</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>243341.5722382834</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>5788.839010501635</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>46833.84883600533</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>88069.4576711509</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>129191.5436850978</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>170421.1566589766</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>211153.0424325749</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>243341.5722382834</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL28"/>
+  <dimension ref="A2:ALL19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -500,14 +500,9 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2531,44 +2526,14 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>2023-11</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 39</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 40</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 41</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 42</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 43</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 44</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2582,34 +2547,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>243341.5722382834</v>
+        <v>24881.33863753015</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>182964.3565130286</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>60377.21572525475</v>
+        <v>24881.33863753015</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5941.27715589603</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5788.839010501635</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>41045.00982550369</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>41235.60883514557</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>41122.08601394689</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>41229.61297387876</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>40731.88577359835</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>32188.52980570848</v>
+        <v>18940.06148163411</v>
       </c>
     </row>
     <row r="8">
@@ -2621,34 +2568,16 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>205062.0426615557</v>
+        <v>22852.92280171143</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>154494.9669683367</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>50567.07569321899</v>
+        <v>22852.92280171143</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>5464.593570077317</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>4912.998432285264</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>34605.94551892477</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>34795.60190147579</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>34691.42805646258</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>34783.01924217368</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>34280.45329971881</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>26992.59621051481</v>
+        <v>17388.32923163411</v>
       </c>
     </row>
     <row r="9">
@@ -2665,28 +2594,10 @@
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="I9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2695,37 +2606,19 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>pv2_emissions</t>
+          <t>bat1_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777775</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.05277777777777775</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,38 +2627,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>bat1_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>1485</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
+        <v>1485</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>345.0000000000001</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12">
@@ -2773,37 +2648,19 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>bat2_emissions</t>
+          <t>solar_th1_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0.05277777777777773</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,38 +2669,20 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>pvt1_emissions</t>
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>14985</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>11145</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>3840</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2851,38 +2690,20 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>CHP2_emissions</t>
+          <t>charging_station1_emissions</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>14985</v>
+        <v>126.468175</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>11145</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>3840</v>
+        <v>126.468175</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>34.73592500000001</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>2040</v>
+        <v>91.73225000000002</v>
       </c>
     </row>
     <row r="15">
@@ -2890,7 +2711,7 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_emissions</t>
+          <t>heat_pump1_emissions</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
@@ -2899,28 +2720,10 @@
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="I15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2929,37 +2732,19 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_emissions</t>
+          <t>bat_with_aging1_emissions</t>
         </is>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0.05277777777777776</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,428 +2753,41 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>pvt1_emissions</t>
+          <t>gas_boiler1_emissions</t>
         </is>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0</v>
+        <v>416.842105263158</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
+        <v>416.842105263158</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>96.8421052631579</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_emissions</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>0</v>
+        <v>320.0000000000001</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_emissions</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>1304.808883333334</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>959.3789500000003</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>345.4299333333334</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>26.82118333333334</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>220.653225</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>219.9715083333334</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>211.96875</v>
-      </c>
-      <c r="N19" s="7" t="n">
-        <v>217.9037833333334</v>
-      </c>
-      <c r="O19" s="7" t="n">
-        <v>222.3256166666667</v>
-      </c>
-      <c r="P19" s="7" t="n">
-        <v>185.1648166666667</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_emissions</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>817.6082083333336</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>616.5107250000002</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>201.0974833333334</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>24.07144166666668</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>133.35845</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>134.6838</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>133.1940666666667</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>143.275925</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>143.9736250000001</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>105.0509</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_emissions</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_emissions</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_emissions</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_emissions</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_emissions</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>3094.189194368667</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>2302.155526367974</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>792.0336680006928</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>67.3684210526289</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>522.5263157894589</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>522.8253095469844</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>522.9688250281929</v>
-      </c>
-      <c r="N25" s="7" t="n">
-        <v>522.8877075822928</v>
-      </c>
-      <c r="O25" s="7" t="n">
-        <v>522.5263157894589</v>
-      </c>
-      <c r="P25" s="7" t="n">
-        <v>413.0862995796505</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_emissions</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>3092.712179581232</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>2301.13323221283</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>791.5789473684016</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>67.36842105262967</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>522.5263157894589</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>522.5263157894589</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>522.5263157894592</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>522.5263157894592</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>522.6069164234074</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>412.6315789473585</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>243341.5722382834</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>182964.3565130286</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>243341.5722382834</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>5788.839010501635</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>46833.84883600533</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>88069.4576711509</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>129191.5436850978</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>170421.1566589766</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>211153.0424325749</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>243341.5722382834</v>
+      <c r="E19" s="5" t="n">
+        <v>24881.33863753015</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>24881.33863753015</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>5941.27715589603</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>24881.33863753014</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL19"/>
+  <dimension ref="A2:ALL29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2547,16 +2547,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24881.33863753015</v>
+        <v>71339.77315659521</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>24881.33863753015</v>
+        <v>71339.77315659521</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>5941.27715589603</v>
+        <v>16761.63345424633</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>18940.06148163411</v>
+        <v>54578.13970234887</v>
       </c>
     </row>
     <row r="8">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>22852.92280171143</v>
+        <v>2834.234922877598</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>22852.92280171143</v>
+        <v>2834.234922877598</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>5464.593570077317</v>
+        <v>1099.852699312364</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>17388.32923163411</v>
+        <v>1734.382223565235</v>
       </c>
     </row>
     <row r="9">
@@ -2585,20 +2585,20 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>pv1_emissions</t>
+          <t>net2_emissions</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>61636.73990132521</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0</v>
+        <v>61636.73990132521</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>0</v>
+        <v>14060.49451155391</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
+        <v>47576.24538977131</v>
       </c>
     </row>
     <row r="10">
@@ -2606,17 +2606,17 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>bat1_emissions</t>
+          <t>pv1_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>0</v>
@@ -2627,20 +2627,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>CHP1_emissions</t>
+          <t>pv2_emissions</t>
         </is>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>345.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2648,20 +2648,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_emissions</t>
+          <t>bat1_emissions</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0</v>
+        <v>2.000331713556814</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0</v>
+        <v>2.000331713556814</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>2.000331713556814</v>
       </c>
     </row>
     <row r="13">
@@ -2669,20 +2669,20 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pvt1_emissions</t>
+          <t>bat2_emissions</t>
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0</v>
+        <v>1.401818825668645</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0</v>
+        <v>1.401818825668645</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>0</v>
+        <v>0.3309210526315789</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0</v>
+        <v>1.070897773037066</v>
       </c>
     </row>
     <row r="14">
@@ -2690,20 +2690,20 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_emissions</t>
+          <t>CHP1_emissions</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>126.468175</v>
+        <v>3712.500000000001</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>126.468175</v>
+        <v>3712.500000000001</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>34.73592500000001</v>
+        <v>862.5000000000001</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>91.73225000000002</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="15">
@@ -2711,20 +2711,20 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_emissions</t>
+          <t>CHP2_emissions</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16">
@@ -2732,17 +2732,17 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_emissions</t>
+          <t>solar_th1_emissions</t>
         </is>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0</v>
@@ -2753,41 +2753,251 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
+          <t>solar_th2_emissions</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_emissions</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_emissions</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_emissions</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>121.0087166666667</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>121.0087166666667</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>28.70338333333334</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>92.30533333333335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_emissions</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>86.28770000000002</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>86.28770000000002</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>24.80445833333334</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>61.48324166666668</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_emissions</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_emissions</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_emissions</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0.88459502721071</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0.88459502721071</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0.5299369893531942</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>0.3546580378575158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_emissions</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>0.7678017382353252</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0.7678017382353252</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0.4701752503583285</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0.2976264878769966</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
           <t>gas_boiler1_emissions</t>
         </is>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E26" s="7" t="n">
+        <v>1042.105263157894</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>1042.105263157894</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>242.1052631578946</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>799.9999999999997</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_emissions</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
         <v>416.842105263158</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G27" s="7" t="n">
         <v>416.842105263158</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>96.8421052631579</v>
-      </c>
-      <c r="J17" s="7" t="n">
+      <c r="I27" s="7" t="n">
+        <v>96.84210526315793</v>
+      </c>
+      <c r="J27" s="7" t="n">
         <v>320.0000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>24881.33863753015</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>24881.33863753015</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>5941.27715589603</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>24881.33863753014</v>
+      <c r="E29" s="5" t="n">
+        <v>71339.77315659521</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>71339.77315659521</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>16761.63345424633</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>71339.7731565952</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,12 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -98,7 +104,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -117,6 +123,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -503,6 +510,7 @@
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2536,6 +2544,11 @@
           <t>2023 - wk 40</t>
         </is>
       </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 41</t>
+        </is>
+      </c>
     </row>
     <row r="6"/>
     <row r="7">
@@ -2547,16 +2560,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71339.77315659521</v>
+        <v>150157.529589118</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>71339.77315659521</v>
+        <v>150157.529589118</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>16761.63345424633</v>
+        <v>17672.78753838141</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>54578.13970234887</v>
+        <v>127618.0640243151</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>4866.678026421448</v>
       </c>
     </row>
     <row r="8">
@@ -2568,16 +2584,19 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>2834.234922877598</v>
+        <v>70515.10879982077</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>2834.234922877598</v>
+        <v>70515.10879982077</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>1099.852699312364</v>
+        <v>8042.226795079368</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>1734.382223565235</v>
+        <v>60461.47393947726</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>2011.40806526414</v>
       </c>
     </row>
     <row r="9">
@@ -2589,16 +2608,19 @@
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>61636.73990132521</v>
+        <v>71624.28335450188</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>61636.73990132521</v>
+        <v>71624.28335450188</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>14060.49451155391</v>
+        <v>8699.48905499795</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>47576.24538977131</v>
+        <v>60376.89275939926</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>2547.901540104676</v>
       </c>
     </row>
     <row r="10">
@@ -2621,6 +2643,9 @@
       <c r="J10" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
@@ -2642,6 +2667,9 @@
       <c r="J11" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
@@ -2652,16 +2680,19 @@
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>2.000331713556814</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>2.000331713556814</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
+        <v>0.05277777777777773</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>-1.973729821555834e-17</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>2.000331713556814</v>
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2673,16 +2704,19 @@
         </is>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1.401818825668645</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>1.401818825668645</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>0.3309210526315789</v>
+        <v>0.05277777777777773</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>1.070897773037066</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2694,16 +2728,19 @@
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>3712.500000000001</v>
+        <v>2985</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>3712.500000000001</v>
+        <v>2985</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>862.5000000000001</v>
+        <v>345</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>2850</v>
+        <v>2520</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2715,16 +2752,19 @@
         </is>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1485</v>
+        <v>2985</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>1485</v>
+        <v>2985</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>345</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>1140</v>
+        <v>2520</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2747,6 +2787,9 @@
       <c r="J16" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
@@ -2768,6 +2811,9 @@
       <c r="J17" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
@@ -2789,6 +2835,9 @@
       <c r="J18" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
@@ -2810,6 +2859,9 @@
       <c r="J19" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
@@ -2820,16 +2872,19 @@
         </is>
       </c>
       <c r="E20" s="7" t="n">
-        <v>121.0087166666667</v>
+        <v>225.1000916666667</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>121.0087166666667</v>
+        <v>225.1000916666667</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>28.70338333333334</v>
+        <v>27.18138333333334</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>92.30533333333335</v>
+        <v>197.9187083333334</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2841,16 +2896,19 @@
         </is>
       </c>
       <c r="E21" s="7" t="n">
-        <v>86.28770000000002</v>
+        <v>147.0367583333334</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>86.28770000000002</v>
+        <v>147.0367583333334</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>24.80445833333334</v>
+        <v>20.15331666666667</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>61.48324166666668</v>
+        <v>126.8834416666667</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2873,6 +2931,9 @@
       <c r="J22" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
@@ -2894,6 +2955,9 @@
       <c r="J23" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
@@ -2904,16 +2968,19 @@
         </is>
       </c>
       <c r="E24" s="7" t="n">
-        <v>0.88459502721071</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>0.88459502721071</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>0.5299369893531942</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>0.3546580378575158</v>
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2925,16 +2992,19 @@
         </is>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0.7678017382353252</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>0.7678017382353252</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="I25" s="7" t="n">
-        <v>0.4701752503583285</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="n">
-        <v>0.2976264878769966</v>
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2946,16 +3016,19 @@
         </is>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1042.105263157894</v>
+        <v>837.8947368421054</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>1042.105263157894</v>
+        <v>837.8947368421054</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>242.1052631578946</v>
+        <v>96.8421052631579</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>799.9999999999997</v>
+        <v>707.3684210526317</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>33.68421052631579</v>
       </c>
     </row>
     <row r="27">
@@ -2967,16 +3040,19 @@
         </is>
       </c>
       <c r="E27" s="7" t="n">
-        <v>416.842105263158</v>
+        <v>837.8947368421054</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>416.842105263158</v>
+        <v>837.8947368421054</v>
       </c>
       <c r="I27" s="7" t="n">
-        <v>96.84210526315793</v>
+        <v>96.8421052631579</v>
       </c>
       <c r="J27" s="7" t="n">
-        <v>320.0000000000001</v>
+        <v>707.3684210526317</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>33.68421052631579</v>
       </c>
     </row>
     <row r="29">
@@ -2988,16 +3064,19 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>71339.77315659521</v>
+        <v>150157.529589118</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>71339.77315659521</v>
+        <v>150157.529589118</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>16761.63345424633</v>
+        <v>17672.78753838141</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>71339.7731565952</v>
+        <v>145290.8515626965</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>150157.529589118</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,12 +40,6 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -104,7 +98,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -123,7 +117,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -493,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL29"/>
+  <dimension ref="A2:ALL12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2560,19 +2553,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150157.529589118</v>
+        <v>48575.84709717064</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>150157.529589118</v>
+        <v>48575.84709717064</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>17672.78753838141</v>
+        <v>5885.757889645316</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>127618.0640243151</v>
+        <v>41731.67560215651</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>4866.678026421448</v>
+        <v>958.4136053688159</v>
       </c>
     </row>
     <row r="8">
@@ -2584,19 +2577,19 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>70515.10879982077</v>
+        <v>48575.84709717064</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>70515.10879982077</v>
+        <v>48575.84709717064</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>8042.226795079368</v>
+        <v>5885.757889645316</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>60461.47393947726</v>
+        <v>41731.67560215651</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>2011.40806526414</v>
+        <v>958.4136053688159</v>
       </c>
     </row>
     <row r="9">
@@ -2604,23 +2597,23 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net2_emissions</t>
+          <t>pv1_emissions</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>71624.28335450188</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>71624.28335450188</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>8699.48905499795</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>60376.89275939926</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>2547.901540104676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2628,7 +2621,7 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>pv1_emissions</t>
+          <t>pv2_emissions</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
@@ -2647,436 +2640,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>pv2_emissions</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>bat1_emissions</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>-1.973729821555834e-17</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.05277777777777775</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>bat2_emissions</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>0.05277777777777773</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_emissions</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>2985</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>2985</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>CHP2_emissions</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>2985</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>2985</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>345</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_emissions</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>solar_th2_emissions</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_emissions</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_emissions</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_emissions</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>225.1000916666667</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>225.1000916666667</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>27.18138333333334</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>197.9187083333334</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_emissions</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>147.0367583333334</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>147.0367583333334</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>20.15331666666667</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>126.8834416666667</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_emissions</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_emissions</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_emissions</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_emissions</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="I25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_emissions</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>96.8421052631579</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>33.68421052631579</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_emissions</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>96.8421052631579</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>707.3684210526317</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>33.68421052631579</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E29" s="5" t="n">
-        <v>150157.529589118</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>150157.529589118</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>17672.78753838141</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>145290.8515626965</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>150157.529589118</v>
+      <c r="E12" s="5" t="n">
+        <v>48575.84709717064</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>48575.84709717064</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>5885.757889645316</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>47617.43349180183</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>48575.84709717064</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,12 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -98,7 +104,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -117,6 +123,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -486,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL12"/>
+  <dimension ref="A2:ALL29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2553,19 +2560,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48575.84709717064</v>
+        <v>148993.0180650193</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>48575.84709717064</v>
+        <v>148993.0180650193</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>5885.757889645316</v>
+        <v>17546.12588902496</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>41731.67560215651</v>
+        <v>126627.1253940173</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>958.4136053688159</v>
+        <v>4819.766781977003</v>
       </c>
     </row>
     <row r="8">
@@ -2577,19 +2584,19 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>48575.84709717064</v>
+        <v>69062.54201479051</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>48575.84709717064</v>
+        <v>69062.54201479051</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>5885.757889645316</v>
+        <v>7752.288468594853</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>41731.67560215651</v>
+        <v>59431.39264266783</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>958.4136053688159</v>
+        <v>1878.860903527835</v>
       </c>
     </row>
     <row r="9">
@@ -2597,23 +2604,23 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>pv1_emissions</t>
+          <t>net2_emissions</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>70393.7733237668</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0</v>
+        <v>70393.7733237668</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>0</v>
+        <v>8687.48431823713</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
+        <v>59135.29310368869</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0</v>
+        <v>2570.995901840981</v>
       </c>
     </row>
     <row r="10">
@@ -2621,47 +2628,455 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
+          <t>pv1_emissions</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
           <t>pv2_emissions</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
+      <c r="E11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>bat1_emissions</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>bat2_emissions</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0.05277777777777773</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0.05277777777777773</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>-1.973729821555834e-17</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.05277777777777775</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_emissions</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>2985</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>2985</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>345</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_emissions</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>4477.500000000002</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>4477.500000000002</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>517.5000000000002</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>3780.000000000002</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>180.0000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_emissions</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_emissions</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_emissions</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_emissions</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_emissions</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>249.1071583333334</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>249.1071583333334</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>28.41436666666667</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>218.2567916666667</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>2.436000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_emissions</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>149.0949833333334</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>149.0949833333334</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>21.754525</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>127.3404583333334</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_emissions</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_emissions</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_emissions</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_emissions</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_emissions</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>837.8947368421054</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>837.8947368421054</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>96.8421052631579</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>33.68421052631579</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_emissions</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>837.8947368421054</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>837.8947368421054</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>96.8421052631579</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>33.68421052631579</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>2 - Emissions accumulated</t>
         </is>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>48575.84709717064</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>48575.84709717064</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>5885.757889645316</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>47617.43349180183</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>48575.84709717064</v>
+      <c r="E29" s="5" t="n">
+        <v>148993.0180650193</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>148993.0180650193</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>17546.12588902496</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>144173.2512830423</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>148993.0180650193</v>
       </c>
     </row>
   </sheetData>

--- a/output/emission_analysis.xlsx
+++ b/output/emission_analysis.xlsx
@@ -507,10 +507,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2534,19 +2538,44 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 39</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 40</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 41</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 42</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 43</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 44</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2560,19 +2589,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148993.0180650193</v>
+        <v>759786.7698634794</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>148993.0180650193</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>17546.12588902496</v>
+        <v>567153.8251105184</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>192632.9447529611</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>126627.1253940173</v>
+        <v>17828.2812772703</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>4819.766781977003</v>
+        <v>128256.2090404262</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>127885.8095600625</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>128034.1526477539</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>127913.9097799027</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>127495.5953770272</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>102372.8121810366</v>
       </c>
     </row>
     <row r="8">
@@ -2584,19 +2628,34 @@
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>69062.54201479051</v>
+        <v>362069.5424343639</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>69062.54201479051</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>7752.288468594853</v>
+        <v>271468.5401319134</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>90601.00230245042</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>59431.39264266783</v>
+        <v>9088.666143521663</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>1878.860903527835</v>
+        <v>60879.06878887548</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>60171.03772471003</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>61997.45400978963</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>61635.06156885255</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>59085.77043714526</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>49212.48376146922</v>
       </c>
     </row>
     <row r="9">
@@ -2608,19 +2667,34 @@
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>70393.7733237668</v>
+        <v>357263.8658223904</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>70393.7733237668</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>8687.48431823713</v>
+        <v>265597.0114761195</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>91666.85434627093</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>59135.29310368869</v>
+        <v>7796.718639888988</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>2570.995901840981</v>
+        <v>60546.97712333436</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>60930.24447380276</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>59241.25492085898</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>59485.71866894492</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>61603.86339499887</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>47659.08860056157</v>
       </c>
     </row>
     <row r="10">
@@ -2637,13 +2711,28 @@
       <c r="G10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2661,13 +2750,28 @@
       <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2680,18 +2784,33 @@
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0.05277777777777774</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.05277777777777775</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.05277777777777775</v>
+        <v>0.05277777777777774</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-1.973729821555834e-17</v>
       </c>
       <c r="K12" s="7" t="n">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2709,13 +2828,28 @@
       <c r="G13" s="7" t="n">
         <v>0.05277777777777773</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="n">
         <v>-1.973729821555834e-17</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="K13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
         <v>0.05277777777777775</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="M13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2728,19 +2862,34 @@
         </is>
       </c>
       <c r="E14" s="7" t="n">
-        <v>2985</v>
+        <v>14985</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>2985</v>
-      </c>
-      <c r="I14" s="7" t="n">
+        <v>11145</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>3840</v>
+      </c>
+      <c r="J14" s="7" t="n">
         <v>345</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="K14" s="7" t="n">
         <v>2520</v>
       </c>
-      <c r="K14" s="7" t="n">
-        <v>120</v>
+      <c r="L14" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>2040</v>
       </c>
     </row>
     <row r="15">
@@ -2752,19 +2901,34 @@
         </is>
       </c>
       <c r="E15" s="7" t="n">
-        <v>4477.500000000002</v>
+        <v>14985</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>4477.500000000002</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>517.5000000000002</v>
+        <v>11145</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>3840</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>3780.000000000002</v>
+        <v>345</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>180.0000000000001</v>
+        <v>2520</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>2040</v>
       </c>
     </row>
     <row r="16">
@@ -2781,13 +2945,28 @@
       <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2805,13 +2984,28 @@
       <c r="G17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,13 +3023,28 @@
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2853,13 +3062,28 @@
       <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2872,19 +3096,34 @@
         </is>
       </c>
       <c r="E20" s="7" t="n">
-        <v>249.1071583333334</v>
+        <v>1251.927858333334</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>249.1071583333334</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>28.41436666666667</v>
+        <v>928.957466666667</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>322.9703916666667</v>
       </c>
       <c r="J20" s="7" t="n">
-        <v>218.2567916666667</v>
+        <v>36.98350833333334</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>2.436000000000001</v>
+        <v>227.1695666666667</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>198.7077583333334</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>212.7265916666667</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>199.6538750000001</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>206.3068083333334</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>170.37975</v>
       </c>
     </row>
     <row r="21">
@@ -2896,19 +3135,34 @@
         </is>
       </c>
       <c r="E21" s="7" t="n">
-        <v>149.0949833333334</v>
+        <v>818.5910583333335</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>149.0949833333334</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>21.754525</v>
+        <v>612.3683750000001</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>206.2226833333334</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>127.3404583333334</v>
+        <v>22.22877500000001</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0</v>
+        <v>148.2039416666667</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>131.0299833333334</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>127.9802833333334</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>138.738825</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>144.8651166666667</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>105.5441333333334</v>
       </c>
     </row>
     <row r="22">
@@ -2925,13 +3179,28 @@
       <c r="G22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2949,13 +3218,28 @@
       <c r="G23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2971,15 +3255,30 @@
         <v>0.05277777777777776</v>
       </c>
       <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="n">
         <v>0.05277777777777776</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>0.05277777777777776</v>
       </c>
     </row>
@@ -2995,16 +3294,31 @@
         <v>0.05277777777777776</v>
       </c>
       <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="n">
         <v>0.05277777777777776</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="n">
         <v>0.05277777777777776</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3016,19 +3330,34 @@
         </is>
       </c>
       <c r="E26" s="7" t="n">
-        <v>837.8947368421054</v>
+        <v>4206.315789473685</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="I26" s="7" t="n">
+        <v>3128.42105263158</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>1077.894736842105</v>
+      </c>
+      <c r="J26" s="7" t="n">
         <v>96.8421052631579</v>
       </c>
-      <c r="J26" s="7" t="n">
+      <c r="K26" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="K26" s="7" t="n">
-        <v>33.68421052631579</v>
+      <c r="L26" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="O26" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="P26" s="7" t="n">
+        <v>572.6315789473686</v>
       </c>
     </row>
     <row r="27">
@@ -3040,19 +3369,34 @@
         </is>
       </c>
       <c r="E27" s="7" t="n">
-        <v>837.8947368421054</v>
+        <v>4206.315789473685</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>837.8947368421054</v>
-      </c>
-      <c r="I27" s="7" t="n">
+        <v>3128.42105263158</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>1077.894736842105</v>
+      </c>
+      <c r="J27" s="7" t="n">
         <v>96.8421052631579</v>
       </c>
-      <c r="J27" s="7" t="n">
+      <c r="K27" s="7" t="n">
         <v>707.3684210526317</v>
       </c>
-      <c r="K27" s="7" t="n">
-        <v>33.68421052631579</v>
+      <c r="L27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="O27" s="7" t="n">
+        <v>707.3684210526317</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>572.6315789473686</v>
       </c>
     </row>
     <row r="29">
@@ -3064,19 +3408,34 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>148993.0180650193</v>
+        <v>759786.7698634794</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>148993.0180650193</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>17546.12588902496</v>
+        <v>567153.8251105184</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>759786.7698634795</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>144173.2512830423</v>
+        <v>17828.2812772703</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>148993.0180650193</v>
+        <v>146084.4903176965</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>273970.299877759</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>402004.4525255128</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>529918.3623054156</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>657413.9576824427</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>759786.7698634794</v>
       </c>
     </row>
   </sheetData>
